--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse-workspace\opencart_cucumber\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7989CE13-E944-404D-BFCD-041DD58A8CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E760A906-4DB3-4EC5-B85B-623BF4A99BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
     <t>abc123@gmail.com</t>
   </si>
   <si>
-    <t>kaw760@hotmail.com</t>
+    <t>kaw760@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -473,7 +473,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
